--- a/natmiOut/OldD2/LR-pairs_lrc2p/Cxcl12-Cd4.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Cxcl12-Cd4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
   </si>
   <si>
     <t>M2</t>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>144.902657866288</v>
+        <v>145.002022</v>
       </c>
       <c r="H2">
-        <v>144.902657866288</v>
+        <v>290.004044</v>
       </c>
       <c r="I2">
-        <v>0.2455790922822413</v>
+        <v>0.2376076076529671</v>
       </c>
       <c r="J2">
-        <v>0.2455790922822413</v>
+        <v>0.1752271928451109</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.42566915086374</v>
+        <v>2.442884</v>
       </c>
       <c r="N2">
-        <v>2.42566915086374</v>
+        <v>4.885768000000001</v>
       </c>
       <c r="O2">
-        <v>0.1978539116443868</v>
+        <v>0.1282605310873426</v>
       </c>
       <c r="P2">
-        <v>0.1978539116443868</v>
+        <v>0.09027715775239338</v>
       </c>
       <c r="Q2">
-        <v>351.4859070644178</v>
+        <v>354.2231195114481</v>
       </c>
       <c r="R2">
-        <v>351.4859070644178</v>
+        <v>1416.892478045792</v>
       </c>
       <c r="S2">
-        <v>0.04858878402611928</v>
+        <v>0.0304756779479625</v>
       </c>
       <c r="T2">
-        <v>0.04858878402611928</v>
+        <v>0.01581901293098713</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>144.902657866288</v>
+        <v>145.002022</v>
       </c>
       <c r="H3">
-        <v>144.902657866288</v>
+        <v>290.004044</v>
       </c>
       <c r="I3">
-        <v>0.2455790922822413</v>
+        <v>0.2376076076529671</v>
       </c>
       <c r="J3">
-        <v>0.2455790922822413</v>
+        <v>0.1752271928451109</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.4496895432831</v>
+        <v>1.769787666666667</v>
       </c>
       <c r="N3">
-        <v>1.4496895432831</v>
+        <v>5.309362999999999</v>
       </c>
       <c r="O3">
-        <v>0.118246442102952</v>
+        <v>0.09292046042239234</v>
       </c>
       <c r="P3">
-        <v>0.118246442102952</v>
+        <v>0.09810416727026754</v>
       </c>
       <c r="Q3">
-        <v>210.0638679026864</v>
+        <v>256.6227901773287</v>
       </c>
       <c r="R3">
-        <v>210.0638679026864</v>
+        <v>1539.736741063972</v>
       </c>
       <c r="S3">
-        <v>0.02903885391724755</v>
+        <v>0.02207860830297686</v>
       </c>
       <c r="T3">
-        <v>0.02903885391724755</v>
+        <v>0.01719051783717618</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>144.902657866288</v>
+        <v>145.002022</v>
       </c>
       <c r="H4">
-        <v>144.902657866288</v>
+        <v>290.004044</v>
       </c>
       <c r="I4">
-        <v>0.2455790922822413</v>
+        <v>0.2376076076529671</v>
       </c>
       <c r="J4">
-        <v>0.2455790922822413</v>
+        <v>0.1752271928451109</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>7.50880889309146</v>
+        <v>4.649226</v>
       </c>
       <c r="N4">
-        <v>7.50880889309146</v>
+        <v>13.947678</v>
       </c>
       <c r="O4">
-        <v>0.6124690214901276</v>
+        <v>0.2441017239889743</v>
       </c>
       <c r="P4">
-        <v>0.6124690214901276</v>
+        <v>0.2577193037175704</v>
       </c>
       <c r="Q4">
-        <v>1088.046366018973</v>
+        <v>674.147170734972</v>
       </c>
       <c r="R4">
-        <v>1088.046366018973</v>
+        <v>4044.883024409832</v>
       </c>
       <c r="S4">
-        <v>0.1504095863485381</v>
+        <v>0.05800042666098507</v>
       </c>
       <c r="T4">
-        <v>0.1504095863485381</v>
+        <v>0.04515943013242641</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,185 +714,185 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>144.902657866288</v>
+        <v>145.002022</v>
       </c>
       <c r="H5">
-        <v>144.902657866288</v>
+        <v>290.004044</v>
       </c>
       <c r="I5">
-        <v>0.2455790922822413</v>
+        <v>0.2376076076529671</v>
       </c>
       <c r="J5">
-        <v>0.2455790922822413</v>
+        <v>0.1752271928451109</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.875732309123225</v>
+        <v>8.546720333333333</v>
       </c>
       <c r="N5">
-        <v>0.875732309123225</v>
+        <v>25.640161</v>
       </c>
       <c r="O5">
-        <v>0.07143062476253363</v>
+        <v>0.4487347287093137</v>
       </c>
       <c r="P5">
-        <v>0.07143062476253363</v>
+        <v>0.4737680666363536</v>
       </c>
       <c r="Q5">
-        <v>126.895939171337</v>
+        <v>1239.291729801847</v>
       </c>
       <c r="R5">
-        <v>126.895939171337</v>
+        <v>7435.750378811084</v>
       </c>
       <c r="S5">
-        <v>0.0175418679903364</v>
+        <v>0.1066227853594233</v>
       </c>
       <c r="T5">
-        <v>0.0175418679903364</v>
+        <v>0.08301704837634366</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>283.78659238818</v>
+        <v>145.002022</v>
       </c>
       <c r="H6">
-        <v>283.78659238818</v>
+        <v>290.004044</v>
       </c>
       <c r="I6">
-        <v>0.4809577324997687</v>
+        <v>0.2376076076529671</v>
       </c>
       <c r="J6">
-        <v>0.4809577324997687</v>
+        <v>0.1752271928451109</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.42566915086374</v>
+        <v>1.061385</v>
       </c>
       <c r="N6">
-        <v>2.42566915086374</v>
+        <v>3.184155000000001</v>
       </c>
       <c r="O6">
-        <v>0.1978539116443868</v>
+        <v>0.05572667543286507</v>
       </c>
       <c r="P6">
-        <v>0.1978539116443868</v>
+        <v>0.05883547136152845</v>
       </c>
       <c r="Q6">
-        <v>688.3723825847508</v>
+        <v>153.9029711204701</v>
       </c>
       <c r="R6">
-        <v>688.3723825847508</v>
+        <v>923.4178267228202</v>
       </c>
       <c r="S6">
-        <v>0.09515936871069385</v>
+        <v>0.01324108203205644</v>
       </c>
       <c r="T6">
-        <v>0.09515936871069385</v>
+        <v>0.01030957448639954</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>283.78659238818</v>
+        <v>145.002022</v>
       </c>
       <c r="H7">
-        <v>283.78659238818</v>
+        <v>290.004044</v>
       </c>
       <c r="I7">
-        <v>0.4809577324997687</v>
+        <v>0.2376076076529671</v>
       </c>
       <c r="J7">
-        <v>0.4809577324997687</v>
+        <v>0.1752271928451109</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M7">
-        <v>1.4496895432831</v>
+        <v>0.5762615</v>
       </c>
       <c r="N7">
-        <v>1.4496895432831</v>
+        <v>1.152523</v>
       </c>
       <c r="O7">
-        <v>0.118246442102952</v>
+        <v>0.03025588035911188</v>
       </c>
       <c r="P7">
-        <v>0.118246442102952</v>
+        <v>0.0212958332618867</v>
       </c>
       <c r="Q7">
-        <v>411.4024555090879</v>
+        <v>83.55908270075301</v>
       </c>
       <c r="R7">
-        <v>411.4024555090879</v>
+        <v>334.236330803012</v>
       </c>
       <c r="S7">
-        <v>0.05687154067000097</v>
+        <v>0.00718902734956297</v>
       </c>
       <c r="T7">
-        <v>0.05687154067000097</v>
+        <v>0.003731609081777947</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>283.78659238818</v>
+        <v>295.9742430000001</v>
       </c>
       <c r="H8">
-        <v>283.78659238818</v>
+        <v>887.9227290000001</v>
       </c>
       <c r="I8">
-        <v>0.4809577324997687</v>
+        <v>0.4849982837213674</v>
       </c>
       <c r="J8">
-        <v>0.4809577324997687</v>
+        <v>0.5365035780881736</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.50880889309146</v>
+        <v>2.442884</v>
       </c>
       <c r="N8">
-        <v>7.50880889309146</v>
+        <v>4.885768000000001</v>
       </c>
       <c r="O8">
-        <v>0.6124690214901276</v>
+        <v>0.1282605310873426</v>
       </c>
       <c r="P8">
-        <v>0.6124690214901276</v>
+        <v>0.09027715775239338</v>
       </c>
       <c r="Q8">
-        <v>2130.899288664487</v>
+        <v>723.0307426368122</v>
       </c>
       <c r="R8">
-        <v>2130.899288664487</v>
+        <v>4338.184455820873</v>
       </c>
       <c r="S8">
-        <v>0.2945717118022439</v>
+        <v>0.06220613744655226</v>
       </c>
       <c r="T8">
-        <v>0.2945717118022439</v>
+        <v>0.04843401815378955</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,805 +962,1797 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>283.78659238818</v>
+        <v>295.9742430000001</v>
       </c>
       <c r="H9">
-        <v>283.78659238818</v>
+        <v>887.9227290000001</v>
       </c>
       <c r="I9">
-        <v>0.4809577324997687</v>
+        <v>0.4849982837213674</v>
       </c>
       <c r="J9">
-        <v>0.4809577324997687</v>
+        <v>0.5365035780881736</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.875732309123225</v>
+        <v>1.769787666666667</v>
       </c>
       <c r="N9">
-        <v>0.875732309123225</v>
+        <v>5.309362999999999</v>
       </c>
       <c r="O9">
-        <v>0.07143062476253363</v>
+        <v>0.09292046042239234</v>
       </c>
       <c r="P9">
-        <v>0.07143062476253363</v>
+        <v>0.09810416727026754</v>
       </c>
       <c r="Q9">
-        <v>248.5210878503123</v>
+        <v>523.811564912403</v>
       </c>
       <c r="R9">
-        <v>248.5210878503123</v>
+        <v>4714.304084211627</v>
       </c>
       <c r="S9">
-        <v>0.03435511131683001</v>
+        <v>0.04506626382745953</v>
       </c>
       <c r="T9">
-        <v>0.03435511131683001</v>
+        <v>0.05263323676585922</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.7035618027542651</v>
+        <v>295.9742430000001</v>
       </c>
       <c r="H10">
-        <v>0.7035618027542651</v>
+        <v>887.9227290000001</v>
       </c>
       <c r="I10">
-        <v>0.001192387161347214</v>
+        <v>0.4849982837213674</v>
       </c>
       <c r="J10">
-        <v>0.001192387161347214</v>
+        <v>0.5365035780881736</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>2.42566915086374</v>
+        <v>4.649226</v>
       </c>
       <c r="N10">
-        <v>2.42566915086374</v>
+        <v>13.947678</v>
       </c>
       <c r="O10">
-        <v>0.1978539116443868</v>
+        <v>0.2441017239889743</v>
       </c>
       <c r="P10">
-        <v>0.1978539116443868</v>
+        <v>0.2577193037175704</v>
       </c>
       <c r="Q10">
-        <v>1.7066081606671</v>
+        <v>1376.051145885918</v>
       </c>
       <c r="R10">
-        <v>1.7066081606671</v>
+        <v>12384.46031297326</v>
       </c>
       <c r="S10">
-        <v>0.0002359184640670929</v>
+        <v>0.1183889171880795</v>
       </c>
       <c r="T10">
-        <v>0.0002359184640670929</v>
+        <v>0.1382673285868693</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.7035618027542651</v>
+        <v>295.9742430000001</v>
       </c>
       <c r="H11">
-        <v>0.7035618027542651</v>
+        <v>887.9227290000001</v>
       </c>
       <c r="I11">
-        <v>0.001192387161347214</v>
+        <v>0.4849982837213674</v>
       </c>
       <c r="J11">
-        <v>0.001192387161347214</v>
+        <v>0.5365035780881736</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.4496895432831</v>
+        <v>8.546720333333333</v>
       </c>
       <c r="N11">
-        <v>1.4496895432831</v>
+        <v>25.640161</v>
       </c>
       <c r="O11">
-        <v>0.118246442102952</v>
+        <v>0.4487347287093137</v>
       </c>
       <c r="P11">
-        <v>0.118246442102952</v>
+        <v>0.4737680666363536</v>
       </c>
       <c r="Q11">
-        <v>1.019946188506265</v>
+        <v>2529.609080791041</v>
       </c>
       <c r="R11">
-        <v>1.019946188506265</v>
+        <v>22766.48172711937</v>
       </c>
       <c r="S11">
-        <v>0.0001409955394385466</v>
+        <v>0.2176355732701906</v>
       </c>
       <c r="T11">
-        <v>0.0001409955394385466</v>
+        <v>0.2541782629343199</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.7035618027542651</v>
+        <v>295.9742430000001</v>
       </c>
       <c r="H12">
-        <v>0.7035618027542651</v>
+        <v>887.9227290000001</v>
       </c>
       <c r="I12">
-        <v>0.001192387161347214</v>
+        <v>0.4849982837213674</v>
       </c>
       <c r="J12">
-        <v>0.001192387161347214</v>
+        <v>0.5365035780881736</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>7.50880889309146</v>
+        <v>1.061385</v>
       </c>
       <c r="N12">
-        <v>7.50880889309146</v>
+        <v>3.184155000000001</v>
       </c>
       <c r="O12">
-        <v>0.6124690214901276</v>
+        <v>0.05572667543286507</v>
       </c>
       <c r="P12">
-        <v>0.6124690214901276</v>
+        <v>0.05883547136152845</v>
       </c>
       <c r="Q12">
-        <v>5.282911121360685</v>
+        <v>314.1426219065551</v>
       </c>
       <c r="R12">
-        <v>5.282911121360685</v>
+        <v>2827.283597158996</v>
       </c>
       <c r="S12">
-        <v>0.0007303001979477191</v>
+        <v>0.02702734194243725</v>
       </c>
       <c r="T12">
-        <v>0.0007303001979477191</v>
+        <v>0.03156544090396429</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.7035618027542651</v>
+        <v>295.9742430000001</v>
       </c>
       <c r="H13">
-        <v>0.7035618027542651</v>
+        <v>887.9227290000001</v>
       </c>
       <c r="I13">
-        <v>0.001192387161347214</v>
+        <v>0.4849982837213674</v>
       </c>
       <c r="J13">
-        <v>0.001192387161347214</v>
+        <v>0.5365035780881736</v>
       </c>
       <c r="K13">
         <v>1</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M13">
-        <v>0.875732309123225</v>
+        <v>0.5762615</v>
       </c>
       <c r="N13">
-        <v>0.875732309123225</v>
+        <v>1.152523</v>
       </c>
       <c r="O13">
-        <v>0.07143062476253363</v>
+        <v>0.03025588035911188</v>
       </c>
       <c r="P13">
-        <v>0.07143062476253363</v>
+        <v>0.0212958332618867</v>
       </c>
       <c r="Q13">
-        <v>0.6161318021368914</v>
+        <v>170.5585612325445</v>
       </c>
       <c r="R13">
-        <v>0.6161318021368914</v>
+        <v>1023.351367395267</v>
       </c>
       <c r="S13">
-        <v>8.51729598938555E-05</v>
+        <v>0.01467405004664829</v>
       </c>
       <c r="T13">
-        <v>8.51729598938555E-05</v>
+        <v>0.01142529074337136</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>131.008911593228</v>
+        <v>0.1807913333333333</v>
       </c>
       <c r="H14">
-        <v>131.008911593228</v>
+        <v>0.542374</v>
       </c>
       <c r="I14">
-        <v>0.2220321563710563</v>
+        <v>0.0002962537736040913</v>
       </c>
       <c r="J14">
-        <v>0.2220321563710563</v>
+        <v>0.0003277149938370313</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.42566915086374</v>
+        <v>2.442884</v>
       </c>
       <c r="N14">
-        <v>2.42566915086374</v>
+        <v>4.885768000000001</v>
       </c>
       <c r="O14">
-        <v>0.1978539116443868</v>
+        <v>0.1282605310873426</v>
       </c>
       <c r="P14">
-        <v>0.1978539116443868</v>
+        <v>0.09027715775239338</v>
       </c>
       <c r="Q14">
-        <v>317.7842753399281</v>
+        <v>0.4416522555386667</v>
       </c>
       <c r="R14">
-        <v>317.7842753399281</v>
+        <v>2.649913533232001</v>
       </c>
       <c r="S14">
-        <v>0.04392993064885165</v>
+        <v>3.799766633909011E-05</v>
       </c>
       <c r="T14">
-        <v>0.04392993064885165</v>
+        <v>2.95851781964503E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>131.008911593228</v>
+        <v>0.1807913333333333</v>
       </c>
       <c r="H15">
-        <v>131.008911593228</v>
+        <v>0.542374</v>
       </c>
       <c r="I15">
-        <v>0.2220321563710563</v>
+        <v>0.0002962537736040913</v>
       </c>
       <c r="J15">
-        <v>0.2220321563710563</v>
+        <v>0.0003277149938370313</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.4496895432831</v>
+        <v>1.769787666666667</v>
       </c>
       <c r="N15">
-        <v>1.4496895432831</v>
+        <v>5.309362999999999</v>
       </c>
       <c r="O15">
-        <v>0.118246442102952</v>
+        <v>0.09292046042239234</v>
       </c>
       <c r="P15">
-        <v>0.118246442102952</v>
+        <v>0.09810416727026754</v>
       </c>
       <c r="Q15">
-        <v>189.9222492136027</v>
+        <v>0.3199622719735555</v>
       </c>
       <c r="R15">
-        <v>189.9222492136027</v>
+        <v>2.879660447762</v>
       </c>
       <c r="S15">
-        <v>0.02625451252332369</v>
+        <v>2.752803704516335E-05</v>
       </c>
       <c r="T15">
-        <v>0.02625451252332369</v>
+        <v>3.215020657236281E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>131.008911593228</v>
+        <v>0.1807913333333333</v>
       </c>
       <c r="H16">
-        <v>131.008911593228</v>
+        <v>0.542374</v>
       </c>
       <c r="I16">
-        <v>0.2220321563710563</v>
+        <v>0.0002962537736040913</v>
       </c>
       <c r="J16">
-        <v>0.2220321563710563</v>
+        <v>0.0003277149938370313</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>7.50880889309146</v>
+        <v>4.649226</v>
       </c>
       <c r="N16">
-        <v>7.50880889309146</v>
+        <v>13.947678</v>
       </c>
       <c r="O16">
-        <v>0.6124690214901276</v>
+        <v>0.2441017239889743</v>
       </c>
       <c r="P16">
-        <v>0.6124690214901276</v>
+        <v>0.2577193037175704</v>
       </c>
       <c r="Q16">
-        <v>983.7208804454632</v>
+        <v>0.840539767508</v>
       </c>
       <c r="R16">
-        <v>983.7208804454632</v>
+        <v>7.564857907572001</v>
       </c>
       <c r="S16">
-        <v>0.1359878175519239</v>
+        <v>7.231605687499796E-05</v>
       </c>
       <c r="T16">
-        <v>0.1359878175519239</v>
+        <v>8.445848002948759E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>131.008911593228</v>
+        <v>0.1807913333333333</v>
       </c>
       <c r="H17">
-        <v>131.008911593228</v>
+        <v>0.542374</v>
       </c>
       <c r="I17">
-        <v>0.2220321563710563</v>
+        <v>0.0002962537736040913</v>
       </c>
       <c r="J17">
-        <v>0.2220321563710563</v>
+        <v>0.0003277149938370313</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.875732309123225</v>
+        <v>8.546720333333333</v>
       </c>
       <c r="N17">
-        <v>0.875732309123225</v>
+        <v>25.640161</v>
       </c>
       <c r="O17">
-        <v>0.07143062476253363</v>
+        <v>0.4487347287093137</v>
       </c>
       <c r="P17">
-        <v>0.07143062476253363</v>
+        <v>0.4737680666363536</v>
       </c>
       <c r="Q17">
-        <v>114.728736665258</v>
+        <v>1.545172964690444</v>
       </c>
       <c r="R17">
-        <v>114.728736665258</v>
+        <v>13.906556682214</v>
       </c>
       <c r="S17">
-        <v>0.01585989564695712</v>
+        <v>0.0001329393567273423</v>
       </c>
       <c r="T17">
-        <v>0.01585989564695712</v>
+        <v>0.0001552608990379149</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="B18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" t="s">
-        <v>20</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>29.6430416415111</v>
+        <v>0.1807913333333333</v>
       </c>
       <c r="H18">
-        <v>29.6430416415111</v>
+        <v>0.542374</v>
       </c>
       <c r="I18">
-        <v>0.05023863168558636</v>
+        <v>0.0002962537736040913</v>
       </c>
       <c r="J18">
-        <v>0.05023863168558636</v>
+        <v>0.0003277149938370313</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.42566915086374</v>
+        <v>1.061385</v>
       </c>
       <c r="N18">
-        <v>2.42566915086374</v>
+        <v>3.184155000000001</v>
       </c>
       <c r="O18">
-        <v>0.1978539116443868</v>
+        <v>0.05572667543286507</v>
       </c>
       <c r="P18">
-        <v>0.1978539116443868</v>
+        <v>0.05883547136152845</v>
       </c>
       <c r="Q18">
-        <v>71.90421164758271</v>
+        <v>0.19188920933</v>
       </c>
       <c r="R18">
-        <v>71.90421164758271</v>
+        <v>1.72700288397</v>
       </c>
       <c r="S18">
-        <v>0.009939909794654894</v>
+        <v>1.650923788739668E-05</v>
       </c>
       <c r="T18">
-        <v>0.009939909794654894</v>
+        <v>1.928126613464213E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>21</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>29.6430416415111</v>
+        <v>0.1807913333333333</v>
       </c>
       <c r="H19">
-        <v>29.6430416415111</v>
+        <v>0.542374</v>
       </c>
       <c r="I19">
-        <v>0.05023863168558636</v>
+        <v>0.0002962537736040913</v>
       </c>
       <c r="J19">
-        <v>0.05023863168558636</v>
+        <v>0.0003277149938370313</v>
       </c>
       <c r="K19">
         <v>1</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M19">
-        <v>1.4496895432831</v>
+        <v>0.5762615</v>
       </c>
       <c r="N19">
-        <v>1.4496895432831</v>
+        <v>1.152523</v>
       </c>
       <c r="O19">
-        <v>0.118246442102952</v>
+        <v>0.03025588035911188</v>
       </c>
       <c r="P19">
-        <v>0.118246442102952</v>
+        <v>0.0212958332618867</v>
       </c>
       <c r="Q19">
-        <v>42.97320749880414</v>
+        <v>0.1041830849336667</v>
       </c>
       <c r="R19">
-        <v>42.97320749880414</v>
+        <v>0.625098509602</v>
       </c>
       <c r="S19">
-        <v>0.005940539452941217</v>
+        <v>8.963418730100803E-06</v>
       </c>
       <c r="T19">
-        <v>0.005940539452941217</v>
+        <v>6.978963866173646E-06</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>29.6430416415111</v>
+        <v>0.738772</v>
       </c>
       <c r="H20">
-        <v>29.6430416415111</v>
+        <v>2.216316</v>
       </c>
       <c r="I20">
-        <v>0.05023863168558636</v>
+        <v>0.001210588963518025</v>
       </c>
       <c r="J20">
-        <v>0.05023863168558636</v>
+        <v>0.00133914970902166</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>7.50880889309146</v>
+        <v>2.442884</v>
       </c>
       <c r="N20">
-        <v>7.50880889309146</v>
+        <v>4.885768000000001</v>
       </c>
       <c r="O20">
-        <v>0.6124690214901276</v>
+        <v>0.1282605310873426</v>
       </c>
       <c r="P20">
-        <v>0.6124690214901276</v>
+        <v>0.09027715775239338</v>
       </c>
       <c r="Q20">
-        <v>222.583934696059</v>
+        <v>1.804734298448</v>
       </c>
       <c r="R20">
-        <v>222.583934696059</v>
+        <v>10.828405790688</v>
       </c>
       <c r="S20">
-        <v>0.030769605589474</v>
+        <v>0.0001552707833892975</v>
       </c>
       <c r="T20">
-        <v>0.030769605589474</v>
+        <v>0.0001208946295354201</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.738772</v>
+      </c>
+      <c r="H21">
+        <v>2.216316</v>
+      </c>
+      <c r="I21">
+        <v>0.001210588963518025</v>
+      </c>
+      <c r="J21">
+        <v>0.00133914970902166</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1.769787666666667</v>
+      </c>
+      <c r="N21">
+        <v>5.309362999999999</v>
+      </c>
+      <c r="O21">
+        <v>0.09292046042239234</v>
+      </c>
+      <c r="P21">
+        <v>0.09810416727026754</v>
+      </c>
+      <c r="Q21">
+        <v>1.307469574078667</v>
+      </c>
+      <c r="R21">
+        <v>11.767226166708</v>
+      </c>
+      <c r="S21">
+        <v>0.0001124884838723616</v>
+      </c>
+      <c r="T21">
+        <v>0.000131376167053791</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.738772</v>
+      </c>
+      <c r="H22">
+        <v>2.216316</v>
+      </c>
+      <c r="I22">
+        <v>0.001210588963518025</v>
+      </c>
+      <c r="J22">
+        <v>0.00133914970902166</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M22">
+        <v>4.649226</v>
+      </c>
+      <c r="N22">
+        <v>13.947678</v>
+      </c>
+      <c r="O22">
+        <v>0.2441017239889743</v>
+      </c>
+      <c r="P22">
+        <v>0.2577193037175704</v>
+      </c>
+      <c r="Q22">
+        <v>3.434717990472</v>
+      </c>
+      <c r="R22">
+        <v>30.912461914248</v>
+      </c>
+      <c r="S22">
+        <v>0.0002955068530367753</v>
+      </c>
+      <c r="T22">
+        <v>0.0003451247305826493</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.738772</v>
+      </c>
+      <c r="H23">
+        <v>2.216316</v>
+      </c>
+      <c r="I23">
+        <v>0.001210588963518025</v>
+      </c>
+      <c r="J23">
+        <v>0.00133914970902166</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>8.546720333333333</v>
+      </c>
+      <c r="N23">
+        <v>25.640161</v>
+      </c>
+      <c r="O23">
+        <v>0.4487347287093137</v>
+      </c>
+      <c r="P23">
+        <v>0.4737680666363536</v>
+      </c>
+      <c r="Q23">
+        <v>6.314077674097333</v>
+      </c>
+      <c r="R23">
+        <v>56.826699066876</v>
+      </c>
+      <c r="S23">
+        <v>0.0005432333101227501</v>
+      </c>
+      <c r="T23">
+        <v>0.0006344463685798273</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="B21" t="s">
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.738772</v>
+      </c>
+      <c r="H24">
+        <v>2.216316</v>
+      </c>
+      <c r="I24">
+        <v>0.001210588963518025</v>
+      </c>
+      <c r="J24">
+        <v>0.00133914970902166</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>1.061385</v>
+      </c>
+      <c r="N24">
+        <v>3.184155000000001</v>
+      </c>
+      <c r="O24">
+        <v>0.05572667543286507</v>
+      </c>
+      <c r="P24">
+        <v>0.05883547136152845</v>
+      </c>
+      <c r="Q24">
+        <v>0.7841215192200002</v>
+      </c>
+      <c r="R24">
+        <v>7.057093672980001</v>
+      </c>
+      <c r="S24">
+        <v>6.74620982525775E-05</v>
+      </c>
+      <c r="T24">
+        <v>7.878950435394304E-05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
       </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.738772</v>
+      </c>
+      <c r="H25">
+        <v>2.216316</v>
+      </c>
+      <c r="I25">
+        <v>0.001210588963518025</v>
+      </c>
+      <c r="J25">
+        <v>0.00133914970902166</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0.5</v>
+      </c>
+      <c r="M25">
+        <v>0.5762615</v>
+      </c>
+      <c r="N25">
+        <v>1.152523</v>
+      </c>
+      <c r="O25">
+        <v>0.03025588035911188</v>
+      </c>
+      <c r="P25">
+        <v>0.0212958332618867</v>
+      </c>
+      <c r="Q25">
+        <v>0.425725860878</v>
+      </c>
+      <c r="R25">
+        <v>2.554355165268</v>
+      </c>
+      <c r="S25">
+        <v>3.662743484426261E-05</v>
+      </c>
+      <c r="T25">
+        <v>2.851830891602937E-05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>137.6068803333333</v>
+      </c>
+      <c r="H26">
+        <v>412.820641</v>
+      </c>
+      <c r="I26">
+        <v>0.225489556501436</v>
+      </c>
+      <c r="J26">
+        <v>0.2494358391462612</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>2.442884</v>
+      </c>
+      <c r="N26">
+        <v>4.885768000000001</v>
+      </c>
+      <c r="O26">
+        <v>0.1282605310873426</v>
+      </c>
+      <c r="P26">
+        <v>0.09027715775239338</v>
+      </c>
+      <c r="Q26">
+        <v>336.1576462562147</v>
+      </c>
+      <c r="R26">
+        <v>2016.945877537288</v>
+      </c>
+      <c r="S26">
+        <v>0.02892141027152353</v>
+      </c>
+      <c r="T26">
+        <v>0.02251835859970765</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>137.6068803333333</v>
+      </c>
+      <c r="H27">
+        <v>412.820641</v>
+      </c>
+      <c r="I27">
+        <v>0.225489556501436</v>
+      </c>
+      <c r="J27">
+        <v>0.2494358391462612</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>1.769787666666667</v>
+      </c>
+      <c r="N27">
+        <v>5.309362999999999</v>
+      </c>
+      <c r="O27">
+        <v>0.09292046042239234</v>
+      </c>
+      <c r="P27">
+        <v>0.09810416727026754</v>
+      </c>
+      <c r="Q27">
+        <v>243.5349596624092</v>
+      </c>
+      <c r="R27">
+        <v>2191.814636961682</v>
+      </c>
+      <c r="S27">
+        <v>0.02095259341055448</v>
+      </c>
+      <c r="T27">
+        <v>0.02447069528680436</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>137.6068803333333</v>
+      </c>
+      <c r="H28">
+        <v>412.820641</v>
+      </c>
+      <c r="I28">
+        <v>0.225489556501436</v>
+      </c>
+      <c r="J28">
+        <v>0.2494358391462612</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="L28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M28">
+        <v>4.649226</v>
+      </c>
+      <c r="N28">
+        <v>13.947678</v>
+      </c>
+      <c r="O28">
+        <v>0.2441017239889743</v>
+      </c>
+      <c r="P28">
+        <v>0.2577193037175704</v>
+      </c>
+      <c r="Q28">
+        <v>639.7654858246219</v>
+      </c>
+      <c r="R28">
+        <v>5757.889372421598</v>
+      </c>
+      <c r="S28">
+        <v>0.05504238948350974</v>
+      </c>
+      <c r="T28">
+        <v>0.06428443078698234</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>29.6430416415111</v>
-      </c>
-      <c r="H21">
-        <v>29.6430416415111</v>
-      </c>
-      <c r="I21">
-        <v>0.05023863168558636</v>
-      </c>
-      <c r="J21">
-        <v>0.05023863168558636</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>0.875732309123225</v>
-      </c>
-      <c r="N21">
-        <v>0.875732309123225</v>
-      </c>
-      <c r="O21">
-        <v>0.07143062476253363</v>
-      </c>
-      <c r="P21">
-        <v>0.07143062476253363</v>
-      </c>
-      <c r="Q21">
-        <v>25.95936930615643</v>
-      </c>
-      <c r="R21">
-        <v>25.95936930615643</v>
-      </c>
-      <c r="S21">
-        <v>0.003588576848516252</v>
-      </c>
-      <c r="T21">
-        <v>0.003588576848516252</v>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>137.6068803333333</v>
+      </c>
+      <c r="H29">
+        <v>412.820641</v>
+      </c>
+      <c r="I29">
+        <v>0.225489556501436</v>
+      </c>
+      <c r="J29">
+        <v>0.2494358391462612</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>8.546720333333333</v>
+      </c>
+      <c r="N29">
+        <v>25.640161</v>
+      </c>
+      <c r="O29">
+        <v>0.4487347287093137</v>
+      </c>
+      <c r="P29">
+        <v>0.4737680666363536</v>
+      </c>
+      <c r="Q29">
+        <v>1176.087522151467</v>
+      </c>
+      <c r="R29">
+        <v>10584.7876993632</v>
+      </c>
+      <c r="S29">
+        <v>0.1011849949634553</v>
+      </c>
+      <c r="T29">
+        <v>0.1181747352621407</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>137.6068803333333</v>
+      </c>
+      <c r="H30">
+        <v>412.820641</v>
+      </c>
+      <c r="I30">
+        <v>0.225489556501436</v>
+      </c>
+      <c r="J30">
+        <v>0.2494358391462612</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>1.061385</v>
+      </c>
+      <c r="N30">
+        <v>3.184155000000001</v>
+      </c>
+      <c r="O30">
+        <v>0.05572667543286507</v>
+      </c>
+      <c r="P30">
+        <v>0.05883547136152845</v>
+      </c>
+      <c r="Q30">
+        <v>146.053878682595</v>
+      </c>
+      <c r="R30">
+        <v>1314.484908143355</v>
+      </c>
+      <c r="S30">
+        <v>0.01256578332865621</v>
+      </c>
+      <c r="T30">
+        <v>0.01467567517062867</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>137.6068803333333</v>
+      </c>
+      <c r="H31">
+        <v>412.820641</v>
+      </c>
+      <c r="I31">
+        <v>0.225489556501436</v>
+      </c>
+      <c r="J31">
+        <v>0.2494358391462612</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>0.5</v>
+      </c>
+      <c r="M31">
+        <v>0.5762615</v>
+      </c>
+      <c r="N31">
+        <v>1.152523</v>
+      </c>
+      <c r="O31">
+        <v>0.03025588035911188</v>
+      </c>
+      <c r="P31">
+        <v>0.0212958332618867</v>
+      </c>
+      <c r="Q31">
+        <v>79.29754727120715</v>
+      </c>
+      <c r="R31">
+        <v>475.785283627243</v>
+      </c>
+      <c r="S31">
+        <v>0.006822385043736645</v>
+      </c>
+      <c r="T31">
+        <v>0.005311944039997571</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>30.755622</v>
+      </c>
+      <c r="H32">
+        <v>61.511244</v>
+      </c>
+      <c r="I32">
+        <v>0.05039770938710747</v>
+      </c>
+      <c r="J32">
+        <v>0.03716652521759548</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>2.442884</v>
+      </c>
+      <c r="N32">
+        <v>4.885768000000001</v>
+      </c>
+      <c r="O32">
+        <v>0.1282605310873426</v>
+      </c>
+      <c r="P32">
+        <v>0.09027715775239338</v>
+      </c>
+      <c r="Q32">
+        <v>75.132416893848</v>
+      </c>
+      <c r="R32">
+        <v>300.529667575392</v>
+      </c>
+      <c r="S32">
+        <v>0.006464036971575956</v>
+      </c>
+      <c r="T32">
+        <v>0.003355288260177173</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>30.755622</v>
+      </c>
+      <c r="H33">
+        <v>61.511244</v>
+      </c>
+      <c r="I33">
+        <v>0.05039770938710747</v>
+      </c>
+      <c r="J33">
+        <v>0.03716652521759548</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>1.769787666666667</v>
+      </c>
+      <c r="N33">
+        <v>5.309362999999999</v>
+      </c>
+      <c r="O33">
+        <v>0.09292046042239234</v>
+      </c>
+      <c r="P33">
+        <v>0.09810416727026754</v>
+      </c>
+      <c r="Q33">
+        <v>54.430920496262</v>
+      </c>
+      <c r="R33">
+        <v>326.5855229775719</v>
+      </c>
+      <c r="S33">
+        <v>0.004682978360483951</v>
+      </c>
+      <c r="T33">
+        <v>0.003646191006801603</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>30.755622</v>
+      </c>
+      <c r="H34">
+        <v>61.511244</v>
+      </c>
+      <c r="I34">
+        <v>0.05039770938710747</v>
+      </c>
+      <c r="J34">
+        <v>0.03716652521759548</v>
+      </c>
+      <c r="K34">
+        <v>2</v>
+      </c>
+      <c r="L34">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M34">
+        <v>4.649226</v>
+      </c>
+      <c r="N34">
+        <v>13.947678</v>
+      </c>
+      <c r="O34">
+        <v>0.2441017239889743</v>
+      </c>
+      <c r="P34">
+        <v>0.2577193037175704</v>
+      </c>
+      <c r="Q34">
+        <v>142.989837448572</v>
+      </c>
+      <c r="R34">
+        <v>857.939024691432</v>
+      </c>
+      <c r="S34">
+        <v>0.01230216774648824</v>
+      </c>
+      <c r="T34">
+        <v>0.009578531000680228</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>30.755622</v>
+      </c>
+      <c r="H35">
+        <v>61.511244</v>
+      </c>
+      <c r="I35">
+        <v>0.05039770938710747</v>
+      </c>
+      <c r="J35">
+        <v>0.03716652521759548</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>8.546720333333333</v>
+      </c>
+      <c r="N35">
+        <v>25.640161</v>
+      </c>
+      <c r="O35">
+        <v>0.4487347287093137</v>
+      </c>
+      <c r="P35">
+        <v>0.4737680666363536</v>
+      </c>
+      <c r="Q35">
+        <v>262.859699911714</v>
+      </c>
+      <c r="R35">
+        <v>1577.158199470284</v>
+      </c>
+      <c r="S35">
+        <v>0.0226152024493945</v>
+      </c>
+      <c r="T35">
+        <v>0.01760831279593149</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>30.755622</v>
+      </c>
+      <c r="H36">
+        <v>61.511244</v>
+      </c>
+      <c r="I36">
+        <v>0.05039770938710747</v>
+      </c>
+      <c r="J36">
+        <v>0.03716652521759548</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>1.061385</v>
+      </c>
+      <c r="N36">
+        <v>3.184155000000001</v>
+      </c>
+      <c r="O36">
+        <v>0.05572667543286507</v>
+      </c>
+      <c r="P36">
+        <v>0.05883547136152845</v>
+      </c>
+      <c r="Q36">
+        <v>32.64355585647001</v>
+      </c>
+      <c r="R36">
+        <v>195.86133513882</v>
+      </c>
+      <c r="S36">
+        <v>0.002808496793575195</v>
+      </c>
+      <c r="T36">
+        <v>0.002186710030047364</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>30.755622</v>
+      </c>
+      <c r="H37">
+        <v>61.511244</v>
+      </c>
+      <c r="I37">
+        <v>0.05039770938710747</v>
+      </c>
+      <c r="J37">
+        <v>0.03716652521759548</v>
+      </c>
+      <c r="K37">
+        <v>1</v>
+      </c>
+      <c r="L37">
+        <v>0.5</v>
+      </c>
+      <c r="M37">
+        <v>0.5762615</v>
+      </c>
+      <c r="N37">
+        <v>1.152523</v>
+      </c>
+      <c r="O37">
+        <v>0.03025588035911188</v>
+      </c>
+      <c r="P37">
+        <v>0.0212958332618867</v>
+      </c>
+      <c r="Q37">
+        <v>17.723280867153</v>
+      </c>
+      <c r="R37">
+        <v>70.89312346861199</v>
+      </c>
+      <c r="S37">
+        <v>0.001524827065589613</v>
+      </c>
+      <c r="T37">
+        <v>0.0007914921239576205</v>
       </c>
     </row>
   </sheetData>
